--- a/BalanceSheet/A_bal.xlsx
+++ b/BalanceSheet/A_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-35000000.0</v>
+        <v>755000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>18000000.0</v>
+        <v>720000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-1000000.0</v>
+        <v>746000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-53000000.0</v>
+        <v>750000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-32000000.0</v>
+        <v>706000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>679000000.0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>43000000.0</v>
+        <v>398000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>37000000.0</v>
+        <v>354000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-25000000.0</v>
+        <v>311000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>5000000.0</v>
+        <v>333000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-15000000.0</v>
+        <v>329000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>354000000.0</v>
@@ -2895,7 +2895,7 @@
         <v>29000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>30000000.0</v>
+        <v>-356000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2000000.0</v>
